--- a/TEST DATA/Sir Elton/Sample_3/wh4_soh_data.xlsx
+++ b/TEST DATA/Sir Elton/Sample_3/wh4_soh_data.xlsx
@@ -5,31 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis(Work)\Desktop\TEST DATA\Sir Elton\Sample_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MBPI-Projects\RM-Consumption-Management-System\TEST DATA\Sir Elton\Sample_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C6050C-9860-4543-8336-A65BE67DC0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF876DD-5333-458D-9989-CF0AA0FA7603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -119,9 +108,6 @@
     <t>Y76</t>
   </si>
   <si>
-    <t xml:space="preserve">Y86 </t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
@@ -137,9 +123,6 @@
     <t>LL53 POWDER</t>
   </si>
   <si>
-    <t xml:space="preserve">NO CODE </t>
-  </si>
-  <si>
     <t>ORANGE</t>
   </si>
   <si>
@@ -159,6 +142,12 @@
   </si>
   <si>
     <t>1178e8f5-24b8-4cdc-ad1e-4ab04aa3bd62</t>
+  </si>
+  <si>
+    <t>NO CODE</t>
+  </si>
+  <si>
+    <t>Y86</t>
   </si>
 </sst>
 </file>
@@ -563,19 +552,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -597,13 +586,13 @@
         <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -611,13 +600,13 @@
         <v>1500</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -625,13 +614,13 @@
         <v>900</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -639,13 +628,13 @@
         <v>225</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -653,13 +642,13 @@
         <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -667,13 +656,13 @@
         <v>150</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -681,13 +670,13 @@
         <v>19.66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -695,13 +684,13 @@
         <v>760</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -709,13 +698,13 @@
         <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -723,13 +712,13 @@
         <v>200</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -737,13 +726,13 @@
         <v>1550</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -751,13 +740,13 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -765,13 +754,13 @@
         <v>100</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -779,13 +768,13 @@
         <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -793,13 +782,13 @@
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -807,13 +796,13 @@
         <v>19000</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -821,13 +810,13 @@
         <v>16500</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -835,13 +824,13 @@
         <v>1000</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -849,13 +838,13 @@
         <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -863,13 +852,13 @@
         <v>6.48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -877,13 +866,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -891,13 +880,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
@@ -905,55 +894,55 @@
         <v>1120</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="B25" s="7">
         <v>120</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="7">
         <v>153.46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="7">
         <v>100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -961,94 +950,94 @@
         <v>1.03</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7">
         <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="7">
         <v>18.100000000000001</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="7">
         <v>69.95</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32" s="7">
         <v>33.340000000000003</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7">
         <v>9.8000000000000007</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7">
         <v>24.95</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
